--- a/mathTransformed/HMPSTT_(2017-08-01)_67_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-08-01)_67_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Govt. High SchoolA S GudiHospet</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Govt. P U College(HG) Siruguppa</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H P S MotasugurSiruguppa</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Govt. P U College (High School Section) T B Dam Hospet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H P S HaregondanahalliH B Halli</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H P S SangameshwaraH B Halli</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -645,6 +680,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Shree Bikki Naresh BabuGovt. High SchoolKudithni</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -672,6 +712,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>B R C Siruguppa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -699,6 +744,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H P S H HosahalliSiruguppa</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -726,6 +776,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Govt. Girls High SchoolKurugodu</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -750,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>S G P U (Comp) CollegeY Nagghashastri Nagar</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -777,6 +837,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H P SAnekal ThandaH B Halli</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -804,6 +869,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H P SGududur</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -831,6 +901,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S Sidiginamola</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -858,6 +933,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Sri Sidalighewra High SchoolSovenahalli Sandur</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -885,6 +965,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>V D H L High SchoolS G P Road</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -912,6 +997,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S Nehru ColonyHosapete</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -939,6 +1029,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S Kallukambha</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -966,6 +1061,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H SBadanahatti</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -993,6 +1093,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Govt. High School</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Roopanagudi Ballari</t>
         </is>
       </c>
@@ -1020,6 +1125,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S PujarahallyKudligi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1047,6 +1157,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S Karur SchoolSiruguppa</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1074,6 +1189,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G P G High SchoolHuvina Hadagalli</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1101,6 +1221,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S IttigiHadagali</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1128,6 +1253,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>S G Comp P U CollegeY Nagesh Shastri Nagar</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1155,6 +1285,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Netaji Subhash Chandra Bose Govt. Urdu High SchoolMillerpet</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Ballari East</t>
         </is>
       </c>
@@ -1182,6 +1317,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Govt Juniar CollegeBommanahalli</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1209,6 +1349,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>K V H High School KattebenurHadagali</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1236,6 +1381,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S TimalapuraKudligi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1263,6 +1413,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Govt. P U CollegeRadiopark</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>C B Ballari</t>
         </is>
       </c>
@@ -1290,6 +1445,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H P SchoolVaradapurH B Halli</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1317,6 +1477,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>P M C Girls High SchoolHospet</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1344,6 +1509,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Sri Renuka High SchoolH B Halli</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1371,6 +1541,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G P U C High School SectionChoranurSandur</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1398,6 +1573,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Vijaya High School Kampli KSF Hospet</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1425,6 +1605,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Huttina Yellamma G H S RaraviSiruguppa</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1452,6 +1637,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H P SThimmalapur</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1479,6 +1669,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Govt. Urdu High SchoolHiriyalkudamCowl BazarEd Gah Road</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1506,6 +1701,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G H P S Dasarahalli TandaHuvina Hadagali</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1533,6 +1733,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Govt. High SchoolB M SugurSiruguppa</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1560,6 +1765,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Govt. Adarsha VidyalayaSandur</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1587,6 +1797,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt. High School Yelubenchi</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Ballari west</t>
         </is>
       </c>
@@ -1614,6 +1829,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H P S Yelubenchi</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1641,6 +1861,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H P S MaduruH B Halli</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1668,6 +1893,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G G H STekkalakoteSiraguppa</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1695,6 +1925,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G H P S AgraharaSandur</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1722,6 +1957,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>B R R G High SchoolG NagalapurHospet</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1749,6 +1989,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>L H S High SchoolHampasagarHagaribommanahalli</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1776,6 +2021,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G J CollegeEmmiganuru</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1803,6 +2053,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Govt. High SchoolByasigideriHagaribommanahalli</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1830,6 +2085,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G P U C Hosamoka</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1857,6 +2117,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Govt. High SchoolM SugurSiraguppa</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1884,6 +2149,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>S G B H SBennikalliH B Halli</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1911,6 +2181,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>G H S ToranagalluSandur</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1938,6 +2213,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>G H S Siddammanahalli</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1965,6 +2245,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>G H S Donimali Sandur</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1992,6 +2277,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>G G H S Hosahalli Kudligi</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -2019,6 +2309,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>G P U CollegeChittawadgiHospet</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -2046,6 +2341,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>G H P S GosubaluSirugappa</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -2073,6 +2373,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>Smiode vyasapuriHigh School Vyasa Nakare Hospet</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -2100,6 +2405,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>S B G H S MeerakoranahalliHuvinahadagali</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -2127,6 +2437,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>Govt. High School RavihalSiraguppa</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -2154,6 +2469,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>G H P S B N Halli</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -2181,6 +2501,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>Govt. High SchoolSirigeriSiruguppa</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -2207,7 +2532,8 @@
           <t>VENKATESULU J</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>583101</t>
         </is>
@@ -2234,7 +2560,8 @@
           <t>VIJAYALAKSHMI N</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>Govt (Ex - Mpl) High School Ballari</t>
         </is>
@@ -2262,6 +2589,11 @@
         </is>
       </c>
       <c r="F69" t="inlineStr">
+        <is>
+          <t>G H P S K Gudda Siruguppa</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>Ballari</t>
         </is>

--- a/mathTransformed/HMPSTT_(2017-08-01)_67_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-08-01)_67_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,7 +2532,6 @@
           <t>VENKATESULU J</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
           <t>583101</t>
@@ -2560,7 +2559,6 @@
           <t>VIJAYALAKSHMI N</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
           <t>Govt (Ex - Mpl) High School Ballari</t>

--- a/mathTransformed/HMPSTT_(2017-08-01)_67_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-08-01)_67_4.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Roopanagudi Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ballari East</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C B Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ballari west</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
